--- a/layer_summation_method/data/gamma_table.XLSX
+++ b/layer_summation_method/data/gamma_table.XLSX
@@ -359,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -372,6 +372,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,10 +693,10 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2">
@@ -710,10 +713,10 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3">
@@ -730,10 +733,10 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E4">
@@ -750,10 +753,10 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E5">
@@ -767,10 +770,10 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E6">
@@ -787,10 +790,10 @@
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E7">
@@ -807,10 +810,10 @@
       <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E8">
@@ -827,10 +830,10 @@
       <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E9">
@@ -847,10 +850,10 @@
       <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E10">
@@ -867,10 +870,10 @@
       <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E11">
@@ -887,10 +890,10 @@
       <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E12">
@@ -907,10 +910,10 @@
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E13">
@@ -927,10 +930,10 @@
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E14">
@@ -947,10 +950,10 @@
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E15">
@@ -967,10 +970,10 @@
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E16">
@@ -987,10 +990,10 @@
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E17">
@@ -1007,10 +1010,10 @@
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E18">
@@ -1027,10 +1030,10 @@
       <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E19">
@@ -1047,10 +1050,10 @@
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E20">
@@ -1067,10 +1070,10 @@
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E21">
@@ -1087,10 +1090,10 @@
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E22">
